--- a/biology/Botanique/Parc_Charruyer/Parc_Charruyer.xlsx
+++ b/biology/Botanique/Parc_Charruyer/Parc_Charruyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Charruyer est un parc situé à La Rochelle. Avec ses 40 hectares sur près de 2 km de long, il est le plus vaste parc du centre de la ville.
@@ -512,13 +524,51 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc est établi grâce au legs de Mademoiselle Adèle Charruyer, fille de l'armateur Étienne Charruyer et nièce d'Édouard Charruyer. Il est aménagé à partir du 6 mai 1887 sur 40 hectares de terrains militaires marécageux situés aux pieds des fortifications ouest de la ville, datant de l'enceinte de 1685. Achevé le 31 décembre 1890, il est appelé à l'origine le parc Monceau rochelais. Le parc Charruyer avec les allées du Mail sont un site classé (tout critère) par arrêté du 28 octobre 1931[1]. Long de 2 kilomètres et large de 200 mètres, il est parcouru par deux ruisseaux, le Fétilly et le Lafond, qui se jettent dans l’océan. C’est un parc à l’anglaise, aux allées sinueuses et ombragées par de grands arbres[2].
-Survivance des fortifications de la ville, on peut découvrir en parcourant le parc : la redoute nommée Le Paté à l'époque où le Génie occupait les lieux (ouvrage fortifié qui surplombe le parc animalier tout près du Mail)[3], la porte des deux-Moulins (réaménagée au XIXe siècle) et son fortin et la porte Neuve (réaménagée au XIXe siècle). À la suite du déclassement de la ville, les murs d'enceinte faisant la limite est du parc ont simplement été recouverts de terre et leurs parties hautes constituent aujourd'hui le chemin des remparts.
-Parc animalier Charles-Edouard Beltrémieux
-Dès l'origine, des animaux sont présents dans le parc, notamment avec des volières[4].
-À partir de 1945 se développe un petit parc zoologique qui invite à découvrir perroquets et paons, chèvres naines et baudets du Poitou. Le parc animalier Charles-Edouard Beltrémieux, d'une superficie de 4 ha, est officiellement créé en 1950[5]. Il porte le nom de Charles Édouard Beltrémieux, conservateur du Muséum de La Rochelle et maire de la ville.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est établi grâce au legs de Mademoiselle Adèle Charruyer, fille de l'armateur Étienne Charruyer et nièce d'Édouard Charruyer. Il est aménagé à partir du 6 mai 1887 sur 40 hectares de terrains militaires marécageux situés aux pieds des fortifications ouest de la ville, datant de l'enceinte de 1685. Achevé le 31 décembre 1890, il est appelé à l'origine le parc Monceau rochelais. Le parc Charruyer avec les allées du Mail sont un site classé (tout critère) par arrêté du 28 octobre 1931. Long de 2 kilomètres et large de 200 mètres, il est parcouru par deux ruisseaux, le Fétilly et le Lafond, qui se jettent dans l’océan. C’est un parc à l’anglaise, aux allées sinueuses et ombragées par de grands arbres.
+Survivance des fortifications de la ville, on peut découvrir en parcourant le parc : la redoute nommée Le Paté à l'époque où le Génie occupait les lieux (ouvrage fortifié qui surplombe le parc animalier tout près du Mail), la porte des deux-Moulins (réaménagée au XIXe siècle) et son fortin et la porte Neuve (réaménagée au XIXe siècle). À la suite du déclassement de la ville, les murs d'enceinte faisant la limite est du parc ont simplement été recouverts de terre et leurs parties hautes constituent aujourd'hui le chemin des remparts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parc_Charruyer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Charruyer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parc animalier Charles-Edouard Beltrémieux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dès l'origine, des animaux sont présents dans le parc, notamment avec des volières.
+À partir de 1945 se développe un petit parc zoologique qui invite à découvrir perroquets et paons, chèvres naines et baudets du Poitou. Le parc animalier Charles-Edouard Beltrémieux, d'une superficie de 4 ha, est officiellement créé en 1950. Il porte le nom de Charles Édouard Beltrémieux, conservateur du Muséum de La Rochelle et maire de la ville.
 L'un des objectifs du parc est la conservation des espèces animales locales :
 poules de Marans,
 oies blanches du Poitou,
@@ -530,7 +580,7 @@
 des perruches,
 des paons etc.
 Les animaux évoluent en liberté ou en semi-liberté pour la plupart exceptées certaines espèces qui sont en captivité dans les enclos ou en volières.
-Le parc compte aujourd'hui 360 animaux, son accès est gratuit[6].
+Le parc compte aujourd'hui 360 animaux, son accès est gratuit.
 </t>
         </is>
       </c>
